--- a/EQUIPO CICLO 3.xlsx
+++ b/EQUIPO CICLO 3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukym\OneDrive\Escritorio\ZUKY PERSONAL\MINTIC\UDEA\CICLO3\FUND. PROG\EQUIPO_CICLO3\Equipo-Ciclo-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CATEDRA\CURSOS\UdeA\Ciclo3\Proyecto_c3\Equipo-Ciclo-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="ROLES" sheetId="2" r:id="rId1"/>
@@ -342,23 +342,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,21 +370,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -398,6 +383,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -421,13 +421,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -444,6 +437,13 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -608,15 +608,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="F2:H7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="F2:H7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="F2:H7"/>
   <sortState ref="F3:G7">
     <sortCondition ref="F3:F7"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="NOMBRE" dataDxfId="2"/>
-    <tableColumn id="3" name="SCRUM TEAM" dataDxfId="0"/>
-    <tableColumn id="2" name="FUNCIÓN DEL ROL" dataDxfId="1"/>
+    <tableColumn id="3" name="SCRUM TEAM" dataDxfId="1"/>
+    <tableColumn id="2" name="FUNCIÓN DEL ROL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -888,34 +888,34 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -928,14 +928,14 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -975,7 +975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -995,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>71765068</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>66778133</v>
       </c>
@@ -1060,14 +1060,14 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1002802409</v>
       </c>
@@ -1077,31 +1077,31 @@
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1051676007</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1061687963</v>
       </c>
@@ -1111,30 +1111,30 @@
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
   </sheetData>
@@ -1145,11 +1145,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>